--- a/mAuditoriaPV/formatos/CAJAS COLORES ALLENDE.xlsx
+++ b/mAuditoriaPV/formatos/CAJAS COLORES ALLENDE.xlsx
@@ -1,33 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="390" yWindow="540" windowWidth="19815" windowHeight="9150"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Importador" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>ClaveArticulo</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>01162</t>
+  </si>
+  <si>
+    <t>01455</t>
+  </si>
+  <si>
+    <t>00931</t>
+  </si>
+  <si>
+    <t>00877</t>
+  </si>
+  <si>
+    <t>01053</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -38,7 +70,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,21 +78,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -69,8 +172,19 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B26" totalsRowShown="0">
+  <autoFilter ref="A1:B26"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="ClaveArticulo" dataDxfId="1"/>
+    <tableColumn id="2" name="Cantidad" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -144,7 +258,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -179,7 +292,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -356,65 +468,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75">
-      <c r="A1" s="1">
-        <v>7501087561314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>7503002005538</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.75">
+        <v>7506350106902</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>7501042306714</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.75">
+        <v>7506350107336</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>7501094311711</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.75">
+        <v>7506350110206</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>650240033155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.75">
+        <v>7506350100757</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>7501199423791</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.75">
+        <v>7506350108944</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>7501199413808</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15.75">
+        <v>7506350101280</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7501199417868</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15.75">
+        <v>7506350113528</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7501199418322</v>
+        <v>7506350113429</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>7506350110602</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>7506350100849</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>7506350111937</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>7506350101303</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>7506350101822</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>7506350102782</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>7506350107039</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>7506350104519</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>7506350102591</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>7506350110602</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>7506350101587</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>7506350108784</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>